--- a/data/pca/factorExposure/factorExposure_2018-04-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0100138537060133</v>
+        <v>-0.01451673736869257</v>
       </c>
       <c r="C2">
-        <v>-0.02712126843876653</v>
+        <v>0.01427555384270987</v>
       </c>
       <c r="D2">
-        <v>0.03142719636011138</v>
+        <v>0.03560765807086905</v>
       </c>
       <c r="E2">
-        <v>-0.003670867679474213</v>
+        <v>0.02031049613283205</v>
       </c>
       <c r="F2">
-        <v>0.09948409707754334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.0004864455292763918</v>
+      </c>
+      <c r="G2">
+        <v>-0.03445291970403475</v>
+      </c>
+      <c r="H2">
+        <v>-0.04561215250237484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08850525721295514</v>
+        <v>-0.06730355572426701</v>
       </c>
       <c r="C3">
-        <v>-0.04593936583469143</v>
+        <v>-0.02016611407726552</v>
       </c>
       <c r="D3">
-        <v>0.03561059161325329</v>
+        <v>0.08044019090942048</v>
       </c>
       <c r="E3">
-        <v>-0.04945949114290565</v>
+        <v>0.01064611161966958</v>
       </c>
       <c r="F3">
-        <v>0.3468352228307395</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.03843576208436068</v>
+      </c>
+      <c r="G3">
+        <v>-0.1463118615598471</v>
+      </c>
+      <c r="H3">
+        <v>-0.1180812889866135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.043805456404455</v>
+        <v>-0.03594504060812919</v>
       </c>
       <c r="C4">
-        <v>-0.01485123427215191</v>
+        <v>-0.001974911678361547</v>
       </c>
       <c r="D4">
-        <v>0.03927570735114419</v>
+        <v>0.06719320963395227</v>
       </c>
       <c r="E4">
-        <v>0.03297393905392487</v>
+        <v>-0.01541205444393311</v>
       </c>
       <c r="F4">
-        <v>0.06414060675951831</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.0359429024644666</v>
+      </c>
+      <c r="G4">
+        <v>-0.04388141944583708</v>
+      </c>
+      <c r="H4">
+        <v>-0.05818373263556088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03187168444979621</v>
+        <v>-0.0192903438321262</v>
       </c>
       <c r="C6">
-        <v>-0.01216409409457965</v>
+        <v>-0.005552979625154109</v>
       </c>
       <c r="D6">
-        <v>0.03820068435147475</v>
+        <v>0.06476706487272346</v>
       </c>
       <c r="E6">
-        <v>0.02118414545987743</v>
+        <v>-0.005099826882458496</v>
       </c>
       <c r="F6">
-        <v>0.01026301515433078</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02998360512743449</v>
+      </c>
+      <c r="G6">
+        <v>-0.01617929229124553</v>
+      </c>
+      <c r="H6">
+        <v>-0.05968793732500891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03658404898304081</v>
+        <v>-0.008707112862430276</v>
       </c>
       <c r="C7">
-        <v>0.02824187111571215</v>
+        <v>0.0002130681133445517</v>
       </c>
       <c r="D7">
-        <v>0.03707101909816276</v>
+        <v>0.03673160036483111</v>
       </c>
       <c r="E7">
-        <v>0.0158583815517915</v>
+        <v>-0.0430153372858965</v>
       </c>
       <c r="F7">
-        <v>0.03793103647017571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.004605859299897296</v>
+      </c>
+      <c r="G7">
+        <v>-0.02258384404678464</v>
+      </c>
+      <c r="H7">
+        <v>-0.03492574480897065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01439086149311763</v>
+        <v>-0.002079114652425106</v>
       </c>
       <c r="C8">
-        <v>-0.0008784593239953873</v>
+        <v>-0.002464287358649018</v>
       </c>
       <c r="D8">
-        <v>0.04814845276423206</v>
+        <v>0.01213952957430366</v>
       </c>
       <c r="E8">
-        <v>0.02236947178787441</v>
+        <v>-0.008739990831530825</v>
       </c>
       <c r="F8">
-        <v>0.06413129943826941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.007768577020942315</v>
+      </c>
+      <c r="G8">
+        <v>-0.03837766631434461</v>
+      </c>
+      <c r="H8">
+        <v>-0.03483902162350612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03105204662225447</v>
+        <v>-0.02578553176668509</v>
       </c>
       <c r="C9">
-        <v>-0.00929803506021985</v>
+        <v>-0.002982226432368779</v>
       </c>
       <c r="D9">
-        <v>0.03389442121948461</v>
+        <v>0.04883742729784098</v>
       </c>
       <c r="E9">
-        <v>0.01289755489016134</v>
+        <v>-0.004936632269112404</v>
       </c>
       <c r="F9">
-        <v>0.07972383848252579</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.009911789106318391</v>
+      </c>
+      <c r="G9">
+        <v>-0.043285687297049</v>
+      </c>
+      <c r="H9">
+        <v>-0.05506951003138735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04047668035317856</v>
+        <v>-0.1335021198801497</v>
       </c>
       <c r="C10">
-        <v>-0.001928609026855519</v>
+        <v>0.01315385584194817</v>
       </c>
       <c r="D10">
-        <v>-0.1431524702727034</v>
+        <v>-0.1481873781910828</v>
       </c>
       <c r="E10">
-        <v>-0.04698851204334537</v>
+        <v>0.001011450136777966</v>
       </c>
       <c r="F10">
-        <v>0.06816966852062102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04242122255432418</v>
+      </c>
+      <c r="G10">
+        <v>-0.02731347657985283</v>
+      </c>
+      <c r="H10">
+        <v>0.008727186281782779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02932322150946885</v>
+        <v>-0.01658829362061789</v>
       </c>
       <c r="C11">
-        <v>-0.02157065524218116</v>
+        <v>-0.01525211128850991</v>
       </c>
       <c r="D11">
-        <v>0.03917759857775576</v>
+        <v>0.04809038531975142</v>
       </c>
       <c r="E11">
-        <v>0.01636838564684339</v>
+        <v>0.001905152272994136</v>
       </c>
       <c r="F11">
-        <v>0.02780843041459757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.008290513895846369</v>
+      </c>
+      <c r="G11">
+        <v>-0.01993955328328643</v>
+      </c>
+      <c r="H11">
+        <v>-0.05154110093655111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0410529235451717</v>
+        <v>-0.02039227035811725</v>
       </c>
       <c r="C12">
-        <v>-0.02085151000817437</v>
+        <v>-0.01143027144329705</v>
       </c>
       <c r="D12">
-        <v>0.0321440923456667</v>
+        <v>0.047795424791823</v>
       </c>
       <c r="E12">
-        <v>0.02552595168492564</v>
+        <v>-0.01078869884283464</v>
       </c>
       <c r="F12">
-        <v>0.002745031959772297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.0123877277374656</v>
+      </c>
+      <c r="G12">
+        <v>-0.006111738125235139</v>
+      </c>
+      <c r="H12">
+        <v>-0.0208994541298764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.009904992848026088</v>
+        <v>-0.02047810563266706</v>
       </c>
       <c r="C13">
-        <v>-0.02057407468309366</v>
+        <v>0.01122718400343749</v>
       </c>
       <c r="D13">
-        <v>0.01520893549398883</v>
+        <v>0.02971111079095174</v>
       </c>
       <c r="E13">
-        <v>0.008616019025282157</v>
+        <v>0.01373397021246885</v>
       </c>
       <c r="F13">
-        <v>0.07863035954985774</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0108700355653632</v>
+      </c>
+      <c r="G13">
+        <v>-0.05703925828180563</v>
+      </c>
+      <c r="H13">
+        <v>-0.0729029069613089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01960991920385165</v>
+        <v>-0.01022362451981228</v>
       </c>
       <c r="C14">
-        <v>0.003508637301155905</v>
+        <v>-0.0001792648622417448</v>
       </c>
       <c r="D14">
-        <v>0.02287797023068761</v>
+        <v>0.02007555790538663</v>
       </c>
       <c r="E14">
-        <v>0.01900862318602718</v>
+        <v>-0.01364471441284036</v>
       </c>
       <c r="F14">
-        <v>0.05118618979093787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.003634511540286984</v>
+      </c>
+      <c r="G14">
+        <v>-0.0401778492985049</v>
+      </c>
+      <c r="H14">
+        <v>-0.009416594995533061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03070137962151037</v>
+        <v>-0.01809800525153009</v>
       </c>
       <c r="C16">
-        <v>-0.02183580075921673</v>
+        <v>-0.01409924702555491</v>
       </c>
       <c r="D16">
-        <v>0.04260631553114461</v>
+        <v>0.04171595666303998</v>
       </c>
       <c r="E16">
-        <v>0.01937423423882874</v>
+        <v>-0.001868306394278273</v>
       </c>
       <c r="F16">
-        <v>0.02906568407790718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.01125382780322221</v>
+      </c>
+      <c r="G16">
+        <v>-0.019116096817296</v>
+      </c>
+      <c r="H16">
+        <v>-0.03857222126693563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03315352327881361</v>
+        <v>-0.01914362738608442</v>
       </c>
       <c r="C19">
-        <v>-0.01684678390481717</v>
+        <v>-0.003216406852776535</v>
       </c>
       <c r="D19">
-        <v>0.05480340817176617</v>
+        <v>0.04697400200062916</v>
       </c>
       <c r="E19">
-        <v>0.03143165472889223</v>
+        <v>-0.01006475873930702</v>
       </c>
       <c r="F19">
-        <v>0.08120665536366509</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.01430479234629775</v>
+      </c>
+      <c r="G19">
+        <v>-0.05718233606693338</v>
+      </c>
+      <c r="H19">
+        <v>-0.05370900137701993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001086007850537084</v>
+        <v>-0.004714602207552912</v>
       </c>
       <c r="C20">
-        <v>0.007496379277221534</v>
+        <v>0.003446064594653751</v>
       </c>
       <c r="D20">
-        <v>0.01221836147028284</v>
+        <v>0.02417308172565014</v>
       </c>
       <c r="E20">
-        <v>0.01128937794480861</v>
+        <v>-0.003184550232789705</v>
       </c>
       <c r="F20">
-        <v>0.05805329564466048</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.003216392274791399</v>
+      </c>
+      <c r="G20">
+        <v>-0.04962907778153035</v>
+      </c>
+      <c r="H20">
+        <v>-0.02851784615618116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01456689605160164</v>
+        <v>-0.01195677314768727</v>
       </c>
       <c r="C21">
-        <v>0.01704234681499611</v>
+        <v>0.005415321413331201</v>
       </c>
       <c r="D21">
-        <v>0.0372630246895679</v>
+        <v>0.02353773472803726</v>
       </c>
       <c r="E21">
-        <v>0.001271185925563594</v>
+        <v>-0.01642440694017631</v>
       </c>
       <c r="F21">
-        <v>0.02903676177881491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.006376968855671875</v>
+      </c>
+      <c r="G21">
+        <v>-0.04256785845497085</v>
+      </c>
+      <c r="H21">
+        <v>-0.04857724715406576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02839949491688142</v>
+        <v>-0.01335752379386541</v>
       </c>
       <c r="C24">
-        <v>-0.01986917696475827</v>
+        <v>-0.008777721123565436</v>
       </c>
       <c r="D24">
-        <v>0.02316587549818462</v>
+        <v>0.04318638968998705</v>
       </c>
       <c r="E24">
-        <v>0.01462126122697663</v>
+        <v>-4.388897415493499e-05</v>
       </c>
       <c r="F24">
-        <v>0.03129418187237722</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.006934629176134612</v>
+      </c>
+      <c r="G24">
+        <v>-0.01365909155328971</v>
+      </c>
+      <c r="H24">
+        <v>-0.04610651435676918</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03257516544610654</v>
+        <v>-0.02721701665061684</v>
       </c>
       <c r="C25">
-        <v>-0.01802928407069415</v>
+        <v>-0.007256192159867337</v>
       </c>
       <c r="D25">
-        <v>0.03528357871274904</v>
+        <v>0.04762368752786384</v>
       </c>
       <c r="E25">
-        <v>0.01236149896331707</v>
+        <v>-0.006234398837031985</v>
       </c>
       <c r="F25">
-        <v>0.0333231791044054</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01579355673691347</v>
+      </c>
+      <c r="G25">
+        <v>-0.01666609210885955</v>
+      </c>
+      <c r="H25">
+        <v>-0.04662011775576004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01655411963231087</v>
+        <v>-0.0127860604134525</v>
       </c>
       <c r="C26">
-        <v>-0.01146505676001597</v>
+        <v>0.01773094077599354</v>
       </c>
       <c r="D26">
-        <v>0.02478899981730027</v>
+        <v>0.01435475298093713</v>
       </c>
       <c r="E26">
-        <v>-0.004627577499316018</v>
+        <v>0.0001509526470304507</v>
       </c>
       <c r="F26">
-        <v>0.05209932968077017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.002556970385626667</v>
+      </c>
+      <c r="G26">
+        <v>-0.02436502828096339</v>
+      </c>
+      <c r="H26">
+        <v>-0.0202683317319125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.03814660337015535</v>
+        <v>-0.01415781148318269</v>
       </c>
       <c r="C27">
-        <v>-0.01844158856948571</v>
+        <v>-0.006826252512286548</v>
       </c>
       <c r="D27">
-        <v>0.01069905876002883</v>
+        <v>0.01392501777593406</v>
       </c>
       <c r="E27">
-        <v>0.03050347079714557</v>
+        <v>-0.005562868910214571</v>
       </c>
       <c r="F27">
-        <v>0.01850733790446289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.005276355049324237</v>
+      </c>
+      <c r="G27">
+        <v>-0.009581078406560833</v>
+      </c>
+      <c r="H27">
+        <v>0.001899669019675434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.07208915338249677</v>
+        <v>-0.1850389012918702</v>
       </c>
       <c r="C28">
-        <v>-0.004612368413904945</v>
+        <v>0.02844590292995298</v>
       </c>
       <c r="D28">
-        <v>-0.2098829495778113</v>
+        <v>-0.1895972393171605</v>
       </c>
       <c r="E28">
-        <v>-0.07357419818820135</v>
+        <v>-0.01066750995079165</v>
       </c>
       <c r="F28">
-        <v>0.0682489874567262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03778320547652301</v>
+      </c>
+      <c r="G28">
+        <v>-0.0160104743268385</v>
+      </c>
+      <c r="H28">
+        <v>0.008583488047399328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02145755390474954</v>
+        <v>-0.01536558796542704</v>
       </c>
       <c r="C29">
-        <v>0.002379440317543661</v>
+        <v>-0.001309324807761382</v>
       </c>
       <c r="D29">
-        <v>0.02731086963766765</v>
+        <v>0.01948275626902491</v>
       </c>
       <c r="E29">
-        <v>0.02049563234169762</v>
+        <v>-0.01260363724439929</v>
       </c>
       <c r="F29">
-        <v>0.04831708443912888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.003691033861579366</v>
+      </c>
+      <c r="G29">
+        <v>-0.03998755116566554</v>
+      </c>
+      <c r="H29">
+        <v>-0.005928055474469947</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.05155387761208593</v>
+        <v>-0.03536020342910824</v>
       </c>
       <c r="C30">
-        <v>-0.07359622857759501</v>
+        <v>-0.006394713688953134</v>
       </c>
       <c r="D30">
-        <v>0.06316519327034192</v>
+        <v>0.09594059496586044</v>
       </c>
       <c r="E30">
-        <v>0.03840121506485447</v>
+        <v>0.03277402858870106</v>
       </c>
       <c r="F30">
-        <v>0.08414147227137918</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.03417397646629435</v>
+      </c>
+      <c r="G30">
+        <v>-0.05880471694414076</v>
+      </c>
+      <c r="H30">
+        <v>-0.07236152203126868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05333089741217477</v>
+        <v>-0.04427561568218082</v>
       </c>
       <c r="C31">
-        <v>-0.03621166620480622</v>
+        <v>-0.01165063900105744</v>
       </c>
       <c r="D31">
-        <v>0.02496370282683427</v>
+        <v>0.0317082097353875</v>
       </c>
       <c r="E31">
-        <v>0.01929525747603088</v>
+        <v>0.002472314426924978</v>
       </c>
       <c r="F31">
-        <v>0.0302080598267618</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0001521930723531698</v>
+      </c>
+      <c r="G31">
+        <v>-0.01764065242592993</v>
+      </c>
+      <c r="H31">
+        <v>-0.00256337919886593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02333852417077761</v>
+        <v>-0.008444366618565778</v>
       </c>
       <c r="C32">
-        <v>0.01382273922205239</v>
+        <v>-0.01430658385002888</v>
       </c>
       <c r="D32">
-        <v>0.06023823057919202</v>
+        <v>0.01337767455962008</v>
       </c>
       <c r="E32">
-        <v>0.03470831815656743</v>
+        <v>-0.0300014978187083</v>
       </c>
       <c r="F32">
-        <v>0.04179876244863932</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.02980017498211678</v>
+      </c>
+      <c r="G32">
+        <v>-0.0427706489079335</v>
+      </c>
+      <c r="H32">
+        <v>-0.04704214447870046</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.03189726599313561</v>
+        <v>-0.02202648007879876</v>
       </c>
       <c r="C33">
-        <v>-0.04266764543802838</v>
+        <v>-0.004022310031181277</v>
       </c>
       <c r="D33">
-        <v>0.05509871081578854</v>
+        <v>0.04925690860670279</v>
       </c>
       <c r="E33">
-        <v>0.0007926457997846129</v>
+        <v>0.02028057890240947</v>
       </c>
       <c r="F33">
-        <v>0.06150467702205206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.00835205470829063</v>
+      </c>
+      <c r="G33">
+        <v>-0.03869324248289433</v>
+      </c>
+      <c r="H33">
+        <v>-0.05015606229201899</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03495134556062521</v>
+        <v>-0.02481424518525905</v>
       </c>
       <c r="C34">
-        <v>-0.01415749760296375</v>
+        <v>-0.02348356507911415</v>
       </c>
       <c r="D34">
-        <v>0.04410912507940769</v>
+        <v>0.04578906068554681</v>
       </c>
       <c r="E34">
-        <v>0.02809352263773075</v>
+        <v>-0.01344473729713261</v>
       </c>
       <c r="F34">
-        <v>0.02776139588630896</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01735659661875814</v>
+      </c>
+      <c r="G34">
+        <v>-0.009694922176186612</v>
+      </c>
+      <c r="H34">
+        <v>-0.03704985205991795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01763741902605623</v>
+        <v>-0.01602009694564412</v>
       </c>
       <c r="C36">
-        <v>2.482998445265966e-05</v>
+        <v>0.00616552460553073</v>
       </c>
       <c r="D36">
-        <v>0.0155801226138192</v>
+        <v>0.007995896771964241</v>
       </c>
       <c r="E36">
-        <v>0.008942593629429623</v>
+        <v>-0.007595470498192976</v>
       </c>
       <c r="F36">
-        <v>0.02765258954275401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.002448917540133989</v>
+      </c>
+      <c r="G36">
+        <v>-0.0172411324829663</v>
+      </c>
+      <c r="H36">
+        <v>-0.01553821668145942</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.009346462905426678</v>
+        <v>-0.02544375214348629</v>
       </c>
       <c r="C38">
-        <v>-0.005800687475433556</v>
+        <v>-0.0164710303578752</v>
       </c>
       <c r="D38">
-        <v>0.003852531644386095</v>
+        <v>0.01461064806415191</v>
       </c>
       <c r="E38">
-        <v>-0.0194388463042031</v>
+        <v>0.0001984949016147971</v>
       </c>
       <c r="F38">
-        <v>0.04210385519795328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.00461876555840602</v>
+      </c>
+      <c r="G38">
+        <v>-0.02206172179022091</v>
+      </c>
+      <c r="H38">
+        <v>-0.03572872674539443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02808675994067412</v>
+        <v>-0.007038160565498915</v>
       </c>
       <c r="C39">
-        <v>-0.02075008284859815</v>
+        <v>-0.01578939319278434</v>
       </c>
       <c r="D39">
-        <v>0.06118808558181192</v>
+        <v>0.08766816126001428</v>
       </c>
       <c r="E39">
-        <v>0.01835589913754061</v>
+        <v>0.007101864882914888</v>
       </c>
       <c r="F39">
-        <v>0.04705942007529307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01259636828098557</v>
+      </c>
+      <c r="G39">
+        <v>-0.03050018868773949</v>
+      </c>
+      <c r="H39">
+        <v>-0.08094368437200361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01713571897746741</v>
+        <v>-0.02525989102561151</v>
       </c>
       <c r="C40">
-        <v>-0.04877356824443367</v>
+        <v>-0.003069954586443868</v>
       </c>
       <c r="D40">
-        <v>0.03058713134684987</v>
+        <v>0.03407377673442955</v>
       </c>
       <c r="E40">
-        <v>0.02805089370425977</v>
+        <v>0.02474937700071396</v>
       </c>
       <c r="F40">
-        <v>0.0450892123522068</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.03022684719176692</v>
+      </c>
+      <c r="G40">
+        <v>-0.01726348999924892</v>
+      </c>
+      <c r="H40">
+        <v>-0.06073227397339769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.004778128814311244</v>
+        <v>-0.0126225345235413</v>
       </c>
       <c r="C41">
-        <v>0.001389350370140909</v>
+        <v>0.0038178959541139</v>
       </c>
       <c r="D41">
-        <v>0.007036585604646502</v>
+        <v>-0.008811049490160977</v>
       </c>
       <c r="E41">
-        <v>-0.01054100495777302</v>
+        <v>-0.003999297179574569</v>
       </c>
       <c r="F41">
-        <v>0.005254318493450541</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.00569320720859999</v>
+      </c>
+      <c r="G41">
+        <v>0.002099393695712439</v>
+      </c>
+      <c r="H41">
+        <v>0.004401468022788318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2382734656380399</v>
+        <v>-0.116835937050156</v>
       </c>
       <c r="C42">
-        <v>-0.2150597740987284</v>
+        <v>0.05206490673378565</v>
       </c>
       <c r="D42">
-        <v>0.2040672750375112</v>
+        <v>0.2508550827829954</v>
       </c>
       <c r="E42">
-        <v>-0.856624258832448</v>
+        <v>0.228981998111065</v>
       </c>
       <c r="F42">
-        <v>-0.2652811069256479</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.8237395759315429</v>
+      </c>
+      <c r="G42">
+        <v>0.4096454034787951</v>
+      </c>
+      <c r="H42">
+        <v>-0.02526613296435869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003060544936326898</v>
+        <v>-0.01338873828351046</v>
       </c>
       <c r="C43">
-        <v>-0.00185451128677855</v>
+        <v>0.004546085719695938</v>
       </c>
       <c r="D43">
-        <v>0.009554681304313747</v>
+        <v>-0.008398779260326074</v>
       </c>
       <c r="E43">
-        <v>-0.004810247920390754</v>
+        <v>-8.717024630565782e-05</v>
       </c>
       <c r="F43">
-        <v>0.0223957529730191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.006200045014261655</v>
+      </c>
+      <c r="G43">
+        <v>-0.0003269899768841478</v>
+      </c>
+      <c r="H43">
+        <v>-0.003386330670419243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02357882640720328</v>
+        <v>-0.01278846245050209</v>
       </c>
       <c r="C44">
-        <v>0.003325340511014878</v>
+        <v>-0.009438345986342819</v>
       </c>
       <c r="D44">
-        <v>0.04115469459881752</v>
+        <v>0.04272021914437991</v>
       </c>
       <c r="E44">
-        <v>-0.001880784246454439</v>
+        <v>-0.01245390373548031</v>
       </c>
       <c r="F44">
-        <v>0.09385200399362142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.009993748841555057</v>
+      </c>
+      <c r="G44">
+        <v>-0.03788762507758436</v>
+      </c>
+      <c r="H44">
+        <v>-0.06124216611683687</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0181080736536828</v>
+        <v>-0.006313076351175585</v>
       </c>
       <c r="C46">
-        <v>-0.008384033735364879</v>
+        <v>0.00511470004412215</v>
       </c>
       <c r="D46">
-        <v>0.06099575579976203</v>
+        <v>0.0172299768248043</v>
       </c>
       <c r="E46">
-        <v>0.02414112719646462</v>
+        <v>-0.001473173658553235</v>
       </c>
       <c r="F46">
-        <v>0.06100013739972415</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.00202479047668328</v>
+      </c>
+      <c r="G46">
+        <v>-0.04134855925571579</v>
+      </c>
+      <c r="H46">
+        <v>-0.009066072605348897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0814730445733928</v>
+        <v>-0.06007667511975952</v>
       </c>
       <c r="C47">
-        <v>-0.04814328319951974</v>
+        <v>-0.02960785628953788</v>
       </c>
       <c r="D47">
-        <v>0.01660527085806314</v>
+        <v>0.05923856597010705</v>
       </c>
       <c r="E47">
-        <v>0.02918124572175263</v>
+        <v>-0.005526908419976183</v>
       </c>
       <c r="F47">
-        <v>0.00574275949908492</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.009885064625187736</v>
+      </c>
+      <c r="G47">
+        <v>0.002020787146330068</v>
+      </c>
+      <c r="H47">
+        <v>0.03004244545203296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01773926831285267</v>
+        <v>-0.01730417957436037</v>
       </c>
       <c r="C48">
-        <v>-0.01054082048786477</v>
+        <v>-0.00570884239609575</v>
       </c>
       <c r="D48">
-        <v>0.0221974972995291</v>
+        <v>0.01486209336422731</v>
       </c>
       <c r="E48">
-        <v>0.009207832731508788</v>
+        <v>-0.0008000621307268913</v>
       </c>
       <c r="F48">
-        <v>0.03269572103658052</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.002396228529831371</v>
+      </c>
+      <c r="G48">
+        <v>-0.0176992665821113</v>
+      </c>
+      <c r="H48">
+        <v>-0.01953647920736016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08368831927408607</v>
+        <v>-0.06310513696523988</v>
       </c>
       <c r="C50">
-        <v>-0.03135011819241152</v>
+        <v>-0.02714324338205759</v>
       </c>
       <c r="D50">
-        <v>0.03750155047293627</v>
+        <v>0.05640820140499116</v>
       </c>
       <c r="E50">
-        <v>0.02227772050933391</v>
+        <v>-0.01656149069483459</v>
       </c>
       <c r="F50">
-        <v>0.01814479149354003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.003313301213950791</v>
+      </c>
+      <c r="G50">
+        <v>-0.007333669323193527</v>
+      </c>
+      <c r="H50">
+        <v>0.01723905229358208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01966142476565655</v>
+        <v>-0.01556302453398063</v>
       </c>
       <c r="C51">
-        <v>-0.004702558313111959</v>
+        <v>0.0008298253281308039</v>
       </c>
       <c r="D51">
-        <v>0.00171239273533808</v>
+        <v>0.01212436700288681</v>
       </c>
       <c r="E51">
-        <v>0.003064207922319556</v>
+        <v>-0.007678010656975291</v>
       </c>
       <c r="F51">
-        <v>0.08542989418602719</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.00329080397444321</v>
+      </c>
+      <c r="G51">
+        <v>-0.03222921520971821</v>
+      </c>
+      <c r="H51">
+        <v>-0.04352130899888951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08983527542136832</v>
+        <v>-0.0770264883960827</v>
       </c>
       <c r="C53">
-        <v>-0.05140384859264499</v>
+        <v>-0.04042670694647674</v>
       </c>
       <c r="D53">
-        <v>0.03578185985712948</v>
+        <v>0.09246811828724412</v>
       </c>
       <c r="E53">
-        <v>0.04121351065907181</v>
+        <v>-0.01014771298296809</v>
       </c>
       <c r="F53">
-        <v>-0.03804081673768856</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02967208727540385</v>
+      </c>
+      <c r="G53">
+        <v>0.02355652743331159</v>
+      </c>
+      <c r="H53">
+        <v>0.03071320496087642</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02350017502316121</v>
+        <v>-0.02457801818276509</v>
       </c>
       <c r="C54">
-        <v>-0.001198613775853325</v>
+        <v>-0.005784742473774808</v>
       </c>
       <c r="D54">
-        <v>0.002260820920603114</v>
+        <v>-0.006372178982626901</v>
       </c>
       <c r="E54">
-        <v>0.01465429466156469</v>
+        <v>-0.006059703662756091</v>
       </c>
       <c r="F54">
-        <v>0.03140776822007844</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.007382499681532508</v>
+      </c>
+      <c r="G54">
+        <v>-0.03871531880495475</v>
+      </c>
+      <c r="H54">
+        <v>-0.0001346369307332811</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08623373986736765</v>
+        <v>-0.05913771586171586</v>
       </c>
       <c r="C55">
-        <v>-0.04677479870203567</v>
+        <v>-0.03578886545955236</v>
       </c>
       <c r="D55">
-        <v>0.04517195842481186</v>
+        <v>0.08553631095760247</v>
       </c>
       <c r="E55">
-        <v>0.03466731219134501</v>
+        <v>-0.00908497145097374</v>
       </c>
       <c r="F55">
-        <v>-0.03786189541799604</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.0173814884818087</v>
+      </c>
+      <c r="G55">
+        <v>0.006449835327414682</v>
+      </c>
+      <c r="H55">
+        <v>0.03994344240668959</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.127327511181598</v>
+        <v>-0.1022149367856447</v>
       </c>
       <c r="C56">
-        <v>-0.07832708355831595</v>
+        <v>-0.05820474866563216</v>
       </c>
       <c r="D56">
-        <v>0.02407607239652316</v>
+        <v>0.1176941139008928</v>
       </c>
       <c r="E56">
-        <v>0.08275204946367903</v>
+        <v>-0.01010819974939567</v>
       </c>
       <c r="F56">
-        <v>-0.06853559127890656</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05733632123738591</v>
+      </c>
+      <c r="G56">
+        <v>0.04656261809924335</v>
+      </c>
+      <c r="H56">
+        <v>0.06796947579121566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03910038933013132</v>
+        <v>-0.02827157246292949</v>
       </c>
       <c r="C57">
-        <v>-0.03290375295229341</v>
+        <v>0.00997416405254966</v>
       </c>
       <c r="D57">
-        <v>0.02445533989053033</v>
+        <v>0.0398345538347176</v>
       </c>
       <c r="E57">
-        <v>-0.01424133520751517</v>
+        <v>0.01135641355005759</v>
       </c>
       <c r="F57">
-        <v>0.05195583568630814</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.009512182076392999</v>
+      </c>
+      <c r="G57">
+        <v>-0.06410070915032062</v>
+      </c>
+      <c r="H57">
+        <v>-0.05352423188793493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1445023897985648</v>
+        <v>-0.09971422808245838</v>
       </c>
       <c r="C58">
-        <v>-0.2035445104600243</v>
+        <v>-0.05336336907680182</v>
       </c>
       <c r="D58">
-        <v>0.226172220419319</v>
+        <v>0.1755894549819064</v>
       </c>
       <c r="E58">
-        <v>0.02060220914398071</v>
+        <v>0.289968227105304</v>
       </c>
       <c r="F58">
-        <v>0.5224210962281094</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2607370191493754</v>
+      </c>
+      <c r="G58">
+        <v>-0.7890395071258492</v>
+      </c>
+      <c r="H58">
+        <v>0.3107143655055968</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05479558371861477</v>
+        <v>-0.1977941809384092</v>
       </c>
       <c r="C59">
-        <v>-0.02717572820038125</v>
+        <v>0.01910840997191285</v>
       </c>
       <c r="D59">
-        <v>-0.1809188642587395</v>
+        <v>-0.1854290803300968</v>
       </c>
       <c r="E59">
-        <v>-0.03295681092573362</v>
+        <v>0.008152911050376252</v>
       </c>
       <c r="F59">
-        <v>0.09180020026857449</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.006648788351101637</v>
+      </c>
+      <c r="G59">
+        <v>-0.01956632149621613</v>
+      </c>
+      <c r="H59">
+        <v>-0.0177678739964745</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1327938346314683</v>
+        <v>-0.2091985579547764</v>
       </c>
       <c r="C60">
-        <v>-0.1109364507254938</v>
+        <v>-0.02765678324169896</v>
       </c>
       <c r="D60">
-        <v>-0.001796207637792478</v>
+        <v>0.04492390153034091</v>
       </c>
       <c r="E60">
-        <v>-0.02197498275094029</v>
+        <v>0.05158832219090459</v>
       </c>
       <c r="F60">
-        <v>0.1664334972498225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.07423773639255149</v>
+      </c>
+      <c r="G60">
+        <v>-0.02205127390491858</v>
+      </c>
+      <c r="H60">
+        <v>-0.3802985965920207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.01965336223168586</v>
+        <v>-0.01432708727572233</v>
       </c>
       <c r="C61">
-        <v>-0.01008002701899834</v>
+        <v>-0.0154945256494412</v>
       </c>
       <c r="D61">
-        <v>0.04447888143784914</v>
+        <v>0.05862007419006916</v>
       </c>
       <c r="E61">
-        <v>0.008745005062781933</v>
+        <v>-0.002676662941612003</v>
       </c>
       <c r="F61">
-        <v>0.01677048601949629</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01718064334651627</v>
+      </c>
+      <c r="G61">
+        <v>-0.022108129106681</v>
+      </c>
+      <c r="H61">
+        <v>-0.05907561186589533</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01095338258576033</v>
+        <v>-0.005842938982717303</v>
       </c>
       <c r="C63">
-        <v>-0.00497182929350633</v>
+        <v>0.0003270571648598442</v>
       </c>
       <c r="D63">
-        <v>0.03277284920980393</v>
+        <v>0.02454315384562272</v>
       </c>
       <c r="E63">
-        <v>0.00512076806153858</v>
+        <v>-0.006134590051391863</v>
       </c>
       <c r="F63">
-        <v>0.007995661934068855</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.003661452230313107</v>
+      </c>
+      <c r="G63">
+        <v>-0.01678143430545023</v>
+      </c>
+      <c r="H63">
+        <v>-0.01141779254022305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03331903396025934</v>
+        <v>-0.03646892133991238</v>
       </c>
       <c r="C64">
-        <v>-0.0009233437265100103</v>
+        <v>-0.0119932219642375</v>
       </c>
       <c r="D64">
-        <v>0.03314509709781948</v>
+        <v>0.04043269152975962</v>
       </c>
       <c r="E64">
-        <v>0.01846638827611308</v>
+        <v>-0.01576597763275558</v>
       </c>
       <c r="F64">
-        <v>0.01819917509914752</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.006190114897929208</v>
+      </c>
+      <c r="G64">
+        <v>0.009444522037940679</v>
+      </c>
+      <c r="H64">
+        <v>-0.04871917867112116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03570421450435343</v>
+        <v>-0.03735933932789173</v>
       </c>
       <c r="C65">
-        <v>-0.01365775770725091</v>
+        <v>-0.01064139060380576</v>
       </c>
       <c r="D65">
-        <v>0.03880664809445079</v>
+        <v>0.07831915718552379</v>
       </c>
       <c r="E65">
-        <v>0.02361201110776086</v>
+        <v>-0.007820833032889208</v>
       </c>
       <c r="F65">
-        <v>0.00425927066962065</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04576780995263845</v>
+      </c>
+      <c r="G65">
+        <v>-0.001265781231942901</v>
+      </c>
+      <c r="H65">
+        <v>-0.07121978759629616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03263706113319589</v>
+        <v>-0.01535841833529293</v>
       </c>
       <c r="C66">
-        <v>-0.03122030295151421</v>
+        <v>-0.02534709374160881</v>
       </c>
       <c r="D66">
-        <v>0.06704272797811769</v>
+        <v>0.1097997559247374</v>
       </c>
       <c r="E66">
-        <v>0.04078582692860205</v>
+        <v>0.008143509849130618</v>
       </c>
       <c r="F66">
-        <v>0.03159599370357444</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03513023124608201</v>
+      </c>
+      <c r="G66">
+        <v>-0.03133537737138849</v>
+      </c>
+      <c r="H66">
+        <v>-0.08489723001393469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02043392378883853</v>
+        <v>-0.04682709333042931</v>
       </c>
       <c r="C67">
-        <v>-0.01620709929082152</v>
+        <v>-0.01865543127912695</v>
       </c>
       <c r="D67">
-        <v>-0.007693180756725451</v>
+        <v>0.02013479685861743</v>
       </c>
       <c r="E67">
-        <v>-0.008899051746443168</v>
+        <v>0.001579505422859386</v>
       </c>
       <c r="F67">
-        <v>0.02427202931926391</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01712264362793664</v>
+      </c>
+      <c r="G67">
+        <v>-0.01467068304472096</v>
+      </c>
+      <c r="H67">
+        <v>-0.03334706174352078</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06789373789083687</v>
+        <v>-0.1997745199983569</v>
       </c>
       <c r="C68">
-        <v>-0.0222297781712308</v>
+        <v>0.0451176489134127</v>
       </c>
       <c r="D68">
-        <v>-0.2112749633765329</v>
+        <v>-0.207355573351919</v>
       </c>
       <c r="E68">
-        <v>-0.0446938051534384</v>
+        <v>0.009826566035863566</v>
       </c>
       <c r="F68">
-        <v>0.08480476158362502</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.04703507337200544</v>
+      </c>
+      <c r="G68">
+        <v>-0.02433482319499925</v>
+      </c>
+      <c r="H68">
+        <v>0.04300488864104307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05887215355199582</v>
+        <v>-0.05862223811689362</v>
       </c>
       <c r="C69">
-        <v>-0.03738521918424702</v>
+        <v>-0.0314200443931343</v>
       </c>
       <c r="D69">
-        <v>0.01716443582773401</v>
+        <v>0.0502941036734606</v>
       </c>
       <c r="E69">
-        <v>0.03790109221461367</v>
+        <v>-0.005116972648634693</v>
       </c>
       <c r="F69">
-        <v>0.006023210878696451</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02957114682525422</v>
+      </c>
+      <c r="G69">
+        <v>0.005666050964261537</v>
+      </c>
+      <c r="H69">
+        <v>-0.007623852938892789</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07737829487732494</v>
+        <v>-0.1802193431157259</v>
       </c>
       <c r="C71">
-        <v>-0.03337716958471211</v>
+        <v>0.02795338802302081</v>
       </c>
       <c r="D71">
-        <v>-0.210803194793081</v>
+        <v>-0.1655590736732687</v>
       </c>
       <c r="E71">
-        <v>-0.08009774102917633</v>
+        <v>0.01459165107516808</v>
       </c>
       <c r="F71">
-        <v>0.09003587788845999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.05782922812575442</v>
+      </c>
+      <c r="G71">
+        <v>-0.02873747125236792</v>
+      </c>
+      <c r="H71">
+        <v>0.02451649102778236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09739535229974224</v>
+        <v>-0.0614011945435065</v>
       </c>
       <c r="C72">
-        <v>-0.07671789117110341</v>
+        <v>-0.04517251114643955</v>
       </c>
       <c r="D72">
-        <v>0.0684497474635289</v>
+        <v>0.09402881717015182</v>
       </c>
       <c r="E72">
-        <v>0.08915453760464097</v>
+        <v>0.01431780736159132</v>
       </c>
       <c r="F72">
-        <v>0.06694550780188996</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.07146993726035647</v>
+      </c>
+      <c r="G72">
+        <v>-0.02894842470942693</v>
+      </c>
+      <c r="H72">
+        <v>-0.1052495102767399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1740435091096398</v>
+        <v>-0.2737634105518493</v>
       </c>
       <c r="C73">
-        <v>-0.1813459671267861</v>
+        <v>-0.04577335586893682</v>
       </c>
       <c r="D73">
-        <v>-0.0183155531426182</v>
+        <v>0.113040132277462</v>
       </c>
       <c r="E73">
-        <v>-0.06216994940279182</v>
+        <v>0.09357467624704353</v>
       </c>
       <c r="F73">
-        <v>0.2039928372105906</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.08350791754460583</v>
+      </c>
+      <c r="G73">
+        <v>-0.02713815414775311</v>
+      </c>
+      <c r="H73">
+        <v>-0.4860335429595594</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1183231659457781</v>
+        <v>-0.09908299450832177</v>
       </c>
       <c r="C74">
-        <v>-0.0719994154073577</v>
+        <v>-0.05790667398070571</v>
       </c>
       <c r="D74">
-        <v>0.02750174759462337</v>
+        <v>0.1204876002638517</v>
       </c>
       <c r="E74">
-        <v>0.04574603763279062</v>
+        <v>-0.0112529405279673</v>
       </c>
       <c r="F74">
-        <v>-0.07929944652561896</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.04015961707455286</v>
+      </c>
+      <c r="G74">
+        <v>0.0336393723016095</v>
+      </c>
+      <c r="H74">
+        <v>0.03770235750311939</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.205206856498157</v>
+        <v>-0.2029683282686124</v>
       </c>
       <c r="C75">
-        <v>-0.1405158351329371</v>
+        <v>-0.1053035330494054</v>
       </c>
       <c r="D75">
-        <v>0.02141200356194848</v>
+        <v>0.1913183408758528</v>
       </c>
       <c r="E75">
-        <v>0.1536902760254957</v>
+        <v>-0.009029742774652603</v>
       </c>
       <c r="F75">
-        <v>-0.1168960321865882</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1065655845084156</v>
+      </c>
+      <c r="G75">
+        <v>0.08502463179799591</v>
+      </c>
+      <c r="H75">
+        <v>0.1470515478339494</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2523132752291486</v>
+        <v>-0.1614966909882608</v>
       </c>
       <c r="C76">
-        <v>-0.1250343648900804</v>
+        <v>-0.09563095271230207</v>
       </c>
       <c r="D76">
-        <v>0.02652112368083771</v>
+        <v>0.1781843052431961</v>
       </c>
       <c r="E76">
-        <v>0.1819397983860553</v>
+        <v>-0.04765743273084641</v>
       </c>
       <c r="F76">
-        <v>-0.1988560644168335</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.09273084757751725</v>
+      </c>
+      <c r="G76">
+        <v>0.07252935411241865</v>
+      </c>
+      <c r="H76">
+        <v>0.124091008766565</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09560290674899682</v>
+        <v>-0.05329987682777836</v>
       </c>
       <c r="C77">
-        <v>-0.07390997139275421</v>
+        <v>-0.01768963139310466</v>
       </c>
       <c r="D77">
-        <v>0.1239794915345716</v>
+        <v>0.08989497473540106</v>
       </c>
       <c r="E77">
-        <v>-0.04058509424480352</v>
+        <v>0.0202943814350717</v>
       </c>
       <c r="F77">
-        <v>0.1289994766947353</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.0355198689559079</v>
+      </c>
+      <c r="G77">
+        <v>-0.06476012953809693</v>
+      </c>
+      <c r="H77">
+        <v>-0.02469399397441971</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05958071162185164</v>
+        <v>-0.02939385012814274</v>
       </c>
       <c r="C78">
-        <v>-0.029628718185456</v>
+        <v>-0.02030135635062941</v>
       </c>
       <c r="D78">
-        <v>0.1209677490392841</v>
+        <v>0.07695523025033578</v>
       </c>
       <c r="E78">
-        <v>0.02947011343827508</v>
+        <v>-0.005076261217595811</v>
       </c>
       <c r="F78">
-        <v>0.07415310693802887</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01270187936454253</v>
+      </c>
+      <c r="G78">
+        <v>-0.05488594469747438</v>
+      </c>
+      <c r="H78">
+        <v>-0.09370726111432683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.571285544821802</v>
+        <v>-0.1134225983012419</v>
       </c>
       <c r="C80">
-        <v>0.8006266709955246</v>
+        <v>-0.03539982232065539</v>
       </c>
       <c r="D80">
-        <v>0.07565090397155716</v>
+        <v>0.1004049231642048</v>
       </c>
       <c r="E80">
-        <v>-0.04591884208646539</v>
+        <v>-0.908573658643249</v>
       </c>
       <c r="F80">
-        <v>0.04268531785798978</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.2965975429120229</v>
+      </c>
+      <c r="G80">
+        <v>-0.1689596754806099</v>
+      </c>
+      <c r="H80">
+        <v>-0.02051362010353732</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.163388388439189</v>
+        <v>-0.1334091359719998</v>
       </c>
       <c r="C81">
-        <v>-0.09572461485006573</v>
+        <v>-0.06627358036274004</v>
       </c>
       <c r="D81">
-        <v>0.005551942792400366</v>
+        <v>0.1209807360315864</v>
       </c>
       <c r="E81">
-        <v>0.1168076184434165</v>
+        <v>-0.01602835520983172</v>
       </c>
       <c r="F81">
-        <v>-0.1140144762354951</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.06020174103271823</v>
+      </c>
+      <c r="G81">
+        <v>0.04996269753775759</v>
+      </c>
+      <c r="H81">
+        <v>0.08070830294997272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03072297876103282</v>
+        <v>-0.02806841153667693</v>
       </c>
       <c r="C83">
-        <v>-0.02647291000250064</v>
+        <v>-0.006344325101182338</v>
       </c>
       <c r="D83">
-        <v>0.0320437477505525</v>
+        <v>0.02718179471335978</v>
       </c>
       <c r="E83">
-        <v>-0.01226676958984227</v>
+        <v>0.008045966347398074</v>
       </c>
       <c r="F83">
-        <v>0.05747150883467177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.004760027634297628</v>
+      </c>
+      <c r="G83">
+        <v>-0.03891658691578523</v>
+      </c>
+      <c r="H83">
+        <v>-0.04322117502468621</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2277780707884454</v>
+        <v>-0.1933606346389441</v>
       </c>
       <c r="C85">
-        <v>-0.1400148456862742</v>
+        <v>-0.09206714923077602</v>
       </c>
       <c r="D85">
-        <v>0.02470511392984524</v>
+        <v>0.1961264214685008</v>
       </c>
       <c r="E85">
-        <v>0.141171273172935</v>
+        <v>-0.008934674003835359</v>
       </c>
       <c r="F85">
-        <v>-0.1538757638622669</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1018582078164043</v>
+      </c>
+      <c r="G85">
+        <v>0.1121569799828874</v>
+      </c>
+      <c r="H85">
+        <v>0.07222367082087253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.008135553615724886</v>
+        <v>-0.01553208548040622</v>
       </c>
       <c r="C86">
-        <v>0.001648581676862973</v>
+        <v>-0.005489274588513458</v>
       </c>
       <c r="D86">
-        <v>0.0803720602260706</v>
+        <v>0.03926583145378821</v>
       </c>
       <c r="E86">
-        <v>-0.0006364512657469854</v>
+        <v>-0.005898214379954346</v>
       </c>
       <c r="F86">
-        <v>0.04828371018761365</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01686994284433971</v>
+      </c>
+      <c r="G86">
+        <v>-0.03797692020589806</v>
+      </c>
+      <c r="H86">
+        <v>-0.07793556741840539</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0330321743861226</v>
+        <v>-0.01542751296895941</v>
       </c>
       <c r="C87">
-        <v>-0.01823539025084519</v>
+        <v>-0.006909084272814568</v>
       </c>
       <c r="D87">
-        <v>0.04428625030713438</v>
+        <v>0.04781896400912333</v>
       </c>
       <c r="E87">
-        <v>-0.0005130350738712037</v>
+        <v>0.003778986717746453</v>
       </c>
       <c r="F87">
-        <v>0.1018224674870336</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.006275883660697412</v>
+      </c>
+      <c r="G87">
+        <v>-0.07078422165010775</v>
+      </c>
+      <c r="H87">
+        <v>-0.08477522960480049</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01998672093202563</v>
+        <v>-0.04020874208115055</v>
       </c>
       <c r="C88">
-        <v>0.004181149858131353</v>
+        <v>0.009023281491622601</v>
       </c>
       <c r="D88">
-        <v>-0.006569159507897272</v>
+        <v>0.02729209753567544</v>
       </c>
       <c r="E88">
-        <v>0.01648667527232517</v>
+        <v>-0.02052218760303492</v>
       </c>
       <c r="F88">
-        <v>-0.01783812785019236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01794228228041025</v>
+      </c>
+      <c r="G88">
+        <v>0.001267437689069629</v>
+      </c>
+      <c r="H88">
+        <v>-0.006183311034599268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.105155851793613</v>
+        <v>-0.3059338332997222</v>
       </c>
       <c r="C89">
-        <v>-0.05025755639967906</v>
+        <v>0.05213239342431346</v>
       </c>
       <c r="D89">
-        <v>-0.3301766756278303</v>
+        <v>-0.294626766929139</v>
       </c>
       <c r="E89">
-        <v>-0.05142804141743196</v>
+        <v>0.01117008140644041</v>
       </c>
       <c r="F89">
-        <v>0.1213972404285024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01610439451707816</v>
+      </c>
+      <c r="G89">
+        <v>0.0173466588199142</v>
+      </c>
+      <c r="H89">
+        <v>0.004683194115275118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09251697296930449</v>
+        <v>-0.2562501839210054</v>
       </c>
       <c r="C90">
-        <v>-0.02042003810641886</v>
+        <v>0.04895969364677948</v>
       </c>
       <c r="D90">
-        <v>-0.3579700358321988</v>
+        <v>-0.2747672685007742</v>
       </c>
       <c r="E90">
-        <v>-0.08125955714274009</v>
+        <v>0.004625864865515657</v>
       </c>
       <c r="F90">
-        <v>0.05870042139886349</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.06052165090505705</v>
+      </c>
+      <c r="G90">
+        <v>0.007734585860819856</v>
+      </c>
+      <c r="H90">
+        <v>0.05600718138920611</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2566222841623528</v>
+        <v>-0.1996174756734685</v>
       </c>
       <c r="C91">
-        <v>-0.1789237290544551</v>
+        <v>-0.09921497788390875</v>
       </c>
       <c r="D91">
-        <v>0.01728661334418128</v>
+        <v>0.1777517391290528</v>
       </c>
       <c r="E91">
-        <v>0.1256961309596687</v>
+        <v>0.002290499048413884</v>
       </c>
       <c r="F91">
-        <v>-0.2396274330418482</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.0883216229206485</v>
+      </c>
+      <c r="G91">
+        <v>0.1024649715203956</v>
+      </c>
+      <c r="H91">
+        <v>0.1697762472227041</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1612251857403753</v>
+        <v>-0.2787685988426647</v>
       </c>
       <c r="C92">
-        <v>-0.07244630742048969</v>
+        <v>-0.0220973182444432</v>
       </c>
       <c r="D92">
-        <v>-0.4166646509952127</v>
+        <v>-0.1956241080407138</v>
       </c>
       <c r="E92">
-        <v>0.07928668979099673</v>
+        <v>-0.005771884577012387</v>
       </c>
       <c r="F92">
-        <v>-0.02839751688668347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.00284068645905894</v>
+      </c>
+      <c r="G92">
+        <v>-0.03467863589488537</v>
+      </c>
+      <c r="H92">
+        <v>0.1528144815155532</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09249653667059497</v>
+        <v>-0.2867297022567039</v>
       </c>
       <c r="C93">
-        <v>-0.05963806979379801</v>
+        <v>0.03903560192283064</v>
       </c>
       <c r="D93">
-        <v>-0.4289480716966779</v>
+        <v>-0.2779912598621575</v>
       </c>
       <c r="E93">
-        <v>-0.1098438501850282</v>
+        <v>0.03316554477055283</v>
       </c>
       <c r="F93">
-        <v>0.07430115934932807</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.05155995287015218</v>
+      </c>
+      <c r="G93">
+        <v>0.01409830901798993</v>
+      </c>
+      <c r="H93">
+        <v>0.003320950094972736</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2501749709215387</v>
+        <v>-0.2501699901751249</v>
       </c>
       <c r="C94">
-        <v>-0.18432814866008</v>
+        <v>-0.09990323115474492</v>
       </c>
       <c r="D94">
-        <v>0.01284795105115049</v>
+        <v>0.2033066372445761</v>
       </c>
       <c r="E94">
-        <v>0.2309698443525171</v>
+        <v>0.004569946879893756</v>
       </c>
       <c r="F94">
-        <v>-0.1858386526154474</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2237270252769446</v>
+      </c>
+      <c r="G94">
+        <v>0.1815029652768138</v>
+      </c>
+      <c r="H94">
+        <v>0.3837644551005843</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01794867966099574</v>
+        <v>-0.03205977568785415</v>
       </c>
       <c r="C95">
-        <v>-0.08739176590270592</v>
+        <v>-0.03761195853023705</v>
       </c>
       <c r="D95">
-        <v>0.05515544567898463</v>
+        <v>0.09052953424849074</v>
       </c>
       <c r="E95">
-        <v>-0.002250246545887095</v>
+        <v>0.08160271901828917</v>
       </c>
       <c r="F95">
-        <v>0.007165706998072018</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01993790000716639</v>
+      </c>
+      <c r="G95">
+        <v>-0.0407599922282032</v>
+      </c>
+      <c r="H95">
+        <v>-0.03292929586738413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1405950531198623</v>
+        <v>-0.1877895121445383</v>
       </c>
       <c r="C98">
-        <v>-0.1182086997931566</v>
+        <v>-0.05440352343341513</v>
       </c>
       <c r="D98">
-        <v>-0.01813567245177282</v>
+        <v>0.05016567113839787</v>
       </c>
       <c r="E98">
-        <v>-0.05591628672186295</v>
+        <v>0.06602990576926128</v>
       </c>
       <c r="F98">
-        <v>0.167034442625839</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01244560706228224</v>
+      </c>
+      <c r="G98">
+        <v>-0.06269792522968072</v>
+      </c>
+      <c r="H98">
+        <v>-0.3361914162341632</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.007177619925183823</v>
+        <v>-0.009211716405551719</v>
       </c>
       <c r="C101">
-        <v>0.002684922443207032</v>
+        <v>-0.0004453658731086367</v>
       </c>
       <c r="D101">
-        <v>0.06812154214435692</v>
+        <v>0.02013951477218474</v>
       </c>
       <c r="E101">
-        <v>0.03209607753777098</v>
+        <v>0.001670812584578925</v>
       </c>
       <c r="F101">
-        <v>0.1685145475675263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.006589747683273534</v>
+      </c>
+      <c r="G101">
+        <v>-0.0985092584030054</v>
+      </c>
+      <c r="H101">
+        <v>0.01144185696557183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1032559524895359</v>
+        <v>-0.09541279862987342</v>
       </c>
       <c r="C102">
-        <v>-0.06008050728539312</v>
+        <v>-0.03715309874422969</v>
       </c>
       <c r="D102">
-        <v>0.01487780534675704</v>
+        <v>0.09358832185437752</v>
       </c>
       <c r="E102">
-        <v>0.07200934765330089</v>
+        <v>-0.008880238064364658</v>
       </c>
       <c r="F102">
-        <v>-0.09524631197465709</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.0537361802403834</v>
+      </c>
+      <c r="G102">
+        <v>0.0497427262966934</v>
+      </c>
+      <c r="H102">
+        <v>0.06348390312593906</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.0423745646626027</v>
+        <v>-0.01234890297629984</v>
       </c>
       <c r="C103">
-        <v>-0.01160618737247563</v>
+        <v>-0.00693461929757439</v>
       </c>
       <c r="D103">
-        <v>0.02553481433930964</v>
+        <v>0.01768791667096352</v>
       </c>
       <c r="E103">
-        <v>0.03730645014455983</v>
+        <v>-0.01266081114626004</v>
       </c>
       <c r="F103">
-        <v>-0.006988939296506237</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.003845576777943949</v>
+      </c>
+      <c r="G103">
+        <v>-0.006491170209006368</v>
+      </c>
+      <c r="H103">
+        <v>0.01345115747078525</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1259438353483852</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9486155545112738</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.2363241852231309</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03047400610369376</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1235458231305863</v>
+      </c>
+      <c r="G104">
+        <v>-0.02196700382783741</v>
+      </c>
+      <c r="H104">
+        <v>0.05105039177938341</v>
       </c>
     </row>
   </sheetData>
